--- a/StructureDefinition-ext-R5-PlanDefinition.action.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.action.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -344,7 +344,7 @@
   </si>
   <si>
     <t>Element `PlanDefinition.action.linkId` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.linkId` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.action.linkId` is will have a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -975,7 +975,7 @@
     <t>A human-readable label for the data requirement used to label data flows in BPMN or similar diagrams. Also provides a human readable label when rendering the data requirement that conveys its purpose to human readers.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input.title` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.input.title` is will have a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:title.id</t>
@@ -1002,7 +1002,7 @@
     <t>Defines the data that is to be provided as input to the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input.requirement` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.input.requirement` is will have a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.id</t>
@@ -1033,7 +1033,7 @@
     <t>The relatedData element allows indicating that an input to a parent action is an input to specific child actions. It also allows the output of one action to be identified as the input to a different action</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input.relatedData` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.input.relatedData` is will have a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:relatedData.id</t>
@@ -1082,7 +1082,7 @@
     <t>Extension.extension:output.extension:title</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.title` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.output.title` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:title.id</t>
@@ -1103,7 +1103,7 @@
     <t>Defines the data that results as output from the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.requirement` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.output.requirement` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:requirement.id</t>
@@ -1127,7 +1127,7 @@
     <t>The relatedData element allows indicating that the output of child action is also the output of a parent action. It also allows the input of one action to be identified as the output of a different action</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.relatedData` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.output.relatedData` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:relatedData.id</t>
@@ -1373,7 +1373,7 @@
   </si>
   <si>
     <t>Helps in planning of activity. Element `PlanDefinition.action.location` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.location` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+Element `PlanDefinition.action.location` is will have a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:location.id</t>
@@ -1428,7 +1428,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:concept.id</t>
@@ -1455,7 +1455,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -1518,7 +1518,7 @@
     <t>A reference to the id element of the actor who will participate in this action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.actorId` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.participant.actorId` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:actorId.id</t>
@@ -1581,7 +1581,8 @@
     <t>Who or what can participate</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.typeCanonical` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `PlanDefinition.action.participant.typeCanonical` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical.id</t>
@@ -1612,7 +1613,8 @@
     <t>When this element is a reference, it SHOULD be a reference to a definitional resource (for example, a location type, rather than a specific location).</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.typeReference` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PlanDefinition.action.participant.typeReference` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeReference.id</t>
@@ -1682,7 +1684,7 @@
     <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.function` is mapped to FHIR R4 structure `PlanDefinition`, but has no target element specified.</t>
+    <t>Element `PlanDefinition.action.participant.function` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:function.id</t>

--- a/StructureDefinition-ext-R5-PlanDefinition.action.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.action.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8789" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8789" uniqueCount="686">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `PlanDefinition.action` 0..* `BackboneElement`
 *  R4: `PlanDefinition.action` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `PlanDefinition.action` is mapped to FHIR R4 element `PlanDefinition.action`.</t>
+Element `PlanDefinition.action` has is mapped to FHIR R4 element `PlanDefinition.action`, but has no comparisons.
+Note available implied context: `PlanDefinition.action.action` because `PlanDefinition.action.action` is defined as a content reference to `PlanDefinition.action`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:PlanDefinition.action</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,8 +344,8 @@
     <t>An identifier that is unique within the PlanDefinition to allow linkage within the realized CarePlan and/or RequestOrchestration.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.linkId` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.linkId` is will have a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.linkId` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.linkId` has a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -425,8 +426,8 @@
     <t>A user-visible prefix for the action. For example a section or item numbering such as 1. or A.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.prefix` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.prefix` is mapped to FHIR R4 element `PlanDefinition.action.prefix`.</t>
+    <t>Element `PlanDefinition.action.prefix` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.prefix` has is mapped to FHIR R4 element `PlanDefinition.action.prefix`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:prefix.id</t>
@@ -456,8 +457,8 @@
     <t>The textual description of the action displayed to a user. For example, when the action is a test to be performed, the title would be the title of the test such as Assay by HPLC.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.title` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.title` is mapped to FHIR R4 element `PlanDefinition.action.title`.</t>
+    <t>Element `PlanDefinition.action.title` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.title` has is mapped to FHIR R4 element `PlanDefinition.action.title`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:title.id</t>
@@ -487,8 +488,8 @@
     <t>A brief description of the action used to provide a summary to display to the user.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.description` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.description` is mapped to FHIR R4 element `PlanDefinition.action.description`.</t>
+    <t>Element `PlanDefinition.action.description` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.description` has is mapped to FHIR R4 element `PlanDefinition.action.description`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -522,8 +523,8 @@
     <t>A text equivalent of the action to be performed. This provides a human-interpretable description of the action when the definition is consumed by a system that might not be capable of interpreting it dynamically.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.textEquivalent` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.textEquivalent` is mapped to FHIR R4 element `PlanDefinition.action.textEquivalent`.</t>
+    <t>Element `PlanDefinition.action.textEquivalent` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.textEquivalent` has is mapped to FHIR R4 element `PlanDefinition.action.textEquivalent`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:textEquivalent.id</t>
@@ -553,8 +554,8 @@
     <t>Indicates how quickly the action should be addressed with respect to other actions.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.priority` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.priority` is mapped to FHIR R4 element `PlanDefinition.action.priority`.</t>
+    <t>Element `PlanDefinition.action.priority` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.priority` has is mapped to FHIR R4 element `PlanDefinition.action.priority`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:priority.id</t>
@@ -597,8 +598,8 @@
     <t>A code that provides a meaning, grouping, or classification for the action or action group. For example, a section may have a LOINC code for the section of a documentation template. In pharmaceutical quality, an action (Test) such as pH could be classified as a physical property.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.code` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.code` is mapped to FHIR R4 element `PlanDefinition.action.code`.</t>
+    <t>Element `PlanDefinition.action.code` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.code` has is mapped to FHIR R4 element `PlanDefinition.action.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -644,8 +645,8 @@
     <t>This is different than the clinical evidence documentation, it's an actual business description of the reason for performing the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.reason` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.reason` is mapped to FHIR R4 element `PlanDefinition.action.reason`.</t>
+    <t>Element `PlanDefinition.action.reason` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.reason` has is mapped to FHIR R4 element `PlanDefinition.action.reason`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -681,8 +682,8 @@
     <t>Didactic or other informational resources associated with the action that can be provided to the CDS recipient. Information resources can include inline text commentary and links to web resources.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.documentation` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.documentation` is mapped to FHIR R4 element `PlanDefinition.action.documentation`.</t>
+    <t>Element `PlanDefinition.action.documentation` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.documentation` has is mapped to FHIR R4 element `PlanDefinition.action.documentation`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:documentation.id</t>
@@ -716,8 +717,8 @@
     <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition. In pharmaceutical quality, a goal represents acceptance criteria (Goal) for a given action (Test), so the goalId would be the unique id of a defined goal element establishing the acceptance criteria for the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.goalId` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.goalId` is mapped to FHIR R4 element `PlanDefinition.action.goalId`.</t>
+    <t>Element `PlanDefinition.action.goalId` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.goalId` has is mapped to FHIR R4 element `PlanDefinition.action.goalId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:goalId.id</t>
@@ -755,9 +756,9 @@
 In addition, because the subject needs to be resolved during realization, use of subjects in actions (or in the ActivityDefinition referenced by the action) resolves based on the set of subjects supplied in context and by type (i.e. the patient subject would resolve to a resource of type Patient).</t>
   </si>
   <si>
-    <t>Multiple steps in a protocol often have different groups of steps that are focused on testing different things. The subject of an action specifies the focus of the action and any child actions. Element `PlanDefinition.action.subject[x]` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Multiple steps in a protocol often have different groups of steps that are focused on testing different things. The subject of an action specifies the focus of the action and any child actions. Element `PlanDefinition.action.subject[x]` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
 Note that the target element context `PlanDefinition.action.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action`.
-Element `PlanDefinition.action.subject[x]` is mapped to FHIR R4 element `PlanDefinition.action.subject[x]`.
+Element `PlanDefinition.action.subject[x]` has is mapped to FHIR R4 element `PlanDefinition.action.subject[x]`, but has no comparisons.
 Note that the target element context `PlanDefinition.action.subject[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action`.</t>
   </si>
   <si>
@@ -792,8 +793,8 @@
     <t>A description of when the action should be triggered. When multiple triggers are specified on an action, any triggering event invokes the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.trigger` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.trigger` is mapped to FHIR R4 element `PlanDefinition.action.trigger`.</t>
+    <t>Element `PlanDefinition.action.trigger` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.trigger` has is mapped to FHIR R4 element `PlanDefinition.action.trigger`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:trigger.id</t>
@@ -830,8 +831,8 @@
     <t>When multiple conditions of the same kind are present, the effects are combined using AND semantics, so the overall condition is true only if all the conditions are true.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.condition` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.condition` is mapped to FHIR R4 element `PlanDefinition.action.condition`.</t>
+    <t>Element `PlanDefinition.action.condition` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.condition` has is mapped to FHIR R4 element `PlanDefinition.action.condition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.id</t>
@@ -855,7 +856,8 @@
     <t>Applicability criteria are used to determine immediate applicability when a plan definition is applied to a given context. Start and stop criteria are carried through application and used to describe enter/exit criteria for an action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.condition.kind` is mapped to FHIR R4 element `PlanDefinition.action.condition.kind`.</t>
+    <t>Element `PlanDefinition.action.condition.kind` is part of an existing definition because parent element `PlanDefinition.action.condition` requires a cross-version extension.
+Element `PlanDefinition.action.condition.kind` has is mapped to FHIR R4 element `PlanDefinition.action.condition.kind`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:kind.id</t>
@@ -906,7 +908,8 @@
     <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.condition.expression` is mapped to FHIR R4 element `PlanDefinition.action.condition.expression`.</t>
+    <t>Element `PlanDefinition.action.condition.expression` is part of an existing definition because parent element `PlanDefinition.action.condition` requires a cross-version extension.
+Element `PlanDefinition.action.condition.expression` has is mapped to FHIR R4 element `PlanDefinition.action.condition.expression`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:condition.extension:expression.id</t>
@@ -959,8 +962,8 @@
     <t>Defines input data requirements for the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.input` is mapped to FHIR R4 element `PlanDefinition.action.input`.</t>
+    <t>Element `PlanDefinition.action.input` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.input` has is mapped to FHIR R4 element `PlanDefinition.action.input`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:input.id</t>
@@ -975,7 +978,8 @@
     <t>A human-readable label for the data requirement used to label data flows in BPMN or similar diagrams. Also provides a human readable label when rendering the data requirement that conveys its purpose to human readers.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input.title` is will have a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.input.title` is part of an existing definition because parent element `PlanDefinition.action.input` requires a cross-version extension.
+Element `PlanDefinition.action.input.title` has a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:title.id</t>
@@ -987,6 +991,9 @@
     <t>Extension.extension:input.extension:title.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action.input.title</t>
+  </si>
+  <si>
     <t>Extension.extension:input.extension:title.value[x]</t>
   </si>
   <si>
@@ -1002,7 +1009,8 @@
     <t>Defines the data that is to be provided as input to the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input.requirement` is will have a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.input.requirement` is part of an existing definition because parent element `PlanDefinition.action.input` requires a cross-version extension.
+Element `PlanDefinition.action.input.requirement` has a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.id</t>
@@ -1012,6 +1020,9 @@
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action.input.requirement</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:requirement.value[x]</t>
@@ -1033,7 +1044,8 @@
     <t>The relatedData element allows indicating that an input to a parent action is an input to specific child actions. It also allows the output of one action to be identified as the input to a different action</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.input.relatedData` is will have a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.input.relatedData` is part of an existing definition because parent element `PlanDefinition.action.input` requires a cross-version extension.
+Element `PlanDefinition.action.input.relatedData` has a context of PlanDefinition.action.input based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:input.extension:relatedData.id</t>
@@ -1045,6 +1057,9 @@
     <t>Extension.extension:input.extension:relatedData.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action.input.relatedData</t>
+  </si>
+  <si>
     <t>Extension.extension:input.extension:relatedData.value[x]</t>
   </si>
   <si>
@@ -1069,8 +1084,8 @@
     <t>Defines the outputs of the action, if any.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.output` is mapped to FHIR R4 element `PlanDefinition.action.output`.</t>
+    <t>Element `PlanDefinition.action.output` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.output` has is mapped to FHIR R4 element `PlanDefinition.action.output`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:output.id</t>
@@ -1082,7 +1097,8 @@
     <t>Extension.extension:output.extension:title</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.title` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.output.title` is part of an existing definition because parent element `PlanDefinition.action.output` requires a cross-version extension.
+Element `PlanDefinition.action.output.title` has a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:title.id</t>
@@ -1094,6 +1110,9 @@
     <t>Extension.extension:output.extension:title.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action.output.title</t>
+  </si>
+  <si>
     <t>Extension.extension:output.extension:title.value[x]</t>
   </si>
   <si>
@@ -1103,7 +1122,8 @@
     <t>Defines the data that results as output from the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.requirement` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.output.requirement` is part of an existing definition because parent element `PlanDefinition.action.output` requires a cross-version extension.
+Element `PlanDefinition.action.output.requirement` has a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:requirement.id</t>
@@ -1115,6 +1135,9 @@
     <t>Extension.extension:output.extension:requirement.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action.output.requirement</t>
+  </si>
+  <si>
     <t>Extension.extension:output.extension:requirement.value[x]</t>
   </si>
   <si>
@@ -1127,7 +1150,8 @@
     <t>The relatedData element allows indicating that the output of child action is also the output of a parent action. It also allows the input of one action to be identified as the output of a different action</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.output.relatedData` is will have a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.output.relatedData` is part of an existing definition because parent element `PlanDefinition.action.output` requires a cross-version extension.
+Element `PlanDefinition.action.output.relatedData` has a context of PlanDefinition.action.output based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:output.extension:relatedData.id</t>
@@ -1139,6 +1163,9 @@
     <t>Extension.extension:output.extension:relatedData.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-PlanDefinition.action.output.relatedData</t>
+  </si>
+  <si>
     <t>Extension.extension:output.extension:relatedData.value[x]</t>
   </si>
   <si>
@@ -1166,8 +1193,8 @@
     <t>When an action depends on multiple actions, the meaning is that all actions are dependencies, rather than that any of the actions are a dependency.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.relatedAction` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.relatedAction` is mapped to FHIR R4 element `PlanDefinition.action.relatedAction`.</t>
+    <t>Element `PlanDefinition.action.relatedAction` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.relatedAction` has is mapped to FHIR R4 element `PlanDefinition.action.relatedAction`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.id</t>
@@ -1191,7 +1218,8 @@
     <t>The element id of the target related action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.relatedAction.targetId` is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.actionId`.</t>
+    <t>Element `PlanDefinition.action.relatedAction.targetId` is part of an existing definition because parent element `PlanDefinition.action.relatedAction` requires a cross-version extension.
+Element `PlanDefinition.action.relatedAction.targetId` has is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.actionId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:targetId.id</t>
@@ -1221,7 +1249,8 @@
     <t>The relationship of the start of this action to the related action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.relatedAction.relationship` is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.relationship`.</t>
+    <t>Element `PlanDefinition.action.relatedAction.relationship` is part of an existing definition because parent element `PlanDefinition.action.relatedAction` requires a cross-version extension.
+Element `PlanDefinition.action.relatedAction.relationship` has is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.relationship`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:relationship.id</t>
@@ -1254,7 +1283,8 @@
     <t>The relationship of the end of this action to the related action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.relatedAction.endRelationship` is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.relationship`.</t>
+    <t>Element `PlanDefinition.action.relatedAction.endRelationship` is part of an existing definition because parent element `PlanDefinition.action.relatedAction` requires a cross-version extension.
+Element `PlanDefinition.action.relatedAction.endRelationship` has is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.relationship`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:endRelationship.id</t>
@@ -1284,8 +1314,9 @@
     <t>A duration or range of durations to apply to the relationship. For example, 30-60 minutes before.</t>
   </si>
   <si>
-    <t>Note that the target element context `PlanDefinition.action.relatedAction.offset[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action.relatedAction`.
-Element `PlanDefinition.action.relatedAction.offset[x]` is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.offset[x]`.
+    <t>Element `PlanDefinition.action.relatedAction.offset[x]` is part of an existing definition because parent element `PlanDefinition.action.relatedAction` requires a cross-version extension.
+Note that the target element context `PlanDefinition.action.relatedAction.offset[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action.relatedAction`.
+Element `PlanDefinition.action.relatedAction.offset[x]` has is mapped to FHIR R4 element `PlanDefinition.action.relatedAction.offset[x]`, but has no comparisons.
 Note that the target element context `PlanDefinition.action.relatedAction.offset[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action.relatedAction`.</t>
   </si>
   <si>
@@ -1332,9 +1363,9 @@
     <t>The intent of the timing element is to provide timing when the action should be performed. As a definitional resource, this timing is interpreted as part of an apply operation so that the timing of the result actions in a CarePlan or RequestOrchestration, for example, would be specified by evaluating the timing definition in the context of the apply and setting the resulting timing on the appropriate elements of the target resource. If the timing is an Age, the activity is expected to be performed when the subject is the given Age. When the timing is a Duration, the activity is expected to be performed within the specified duration from the apply. When the timing is a Range, it may be a range of Ages or Durations, providing a range for the expected timing of the resulting activity. When the timing is a Timing, it is establishing a schedule for the timing of the resulting activity.</t>
   </si>
   <si>
-    <t>Allows prompting for activities and detection of missed planned activities. Element `PlanDefinition.action.timing[x]` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Allows prompting for activities and detection of missed planned activities. Element `PlanDefinition.action.timing[x]` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
 Note that the target element context `PlanDefinition.action.timing[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action`.
-Element `PlanDefinition.action.timing[x]` is mapped to FHIR R4 element `PlanDefinition.action.timing[x]`.
+Element `PlanDefinition.action.timing[x]` has is mapped to FHIR R4 element `PlanDefinition.action.timing[x]`, but has no comparisons.
 Note that the target element context `PlanDefinition.action.timing[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action`.</t>
   </si>
   <si>
@@ -1372,8 +1403,8 @@
     <t>May reference a specific clinical location or may just identify a type of location.</t>
   </si>
   <si>
-    <t>Helps in planning of activity. Element `PlanDefinition.action.location` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.location` is will have a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Helps in planning of activity. Element `PlanDefinition.action.location` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.location` has a context of PlanDefinition.action based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:location.id</t>
@@ -1427,8 +1458,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:concept.id</t>
@@ -1455,8 +1486,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:reference.id</t>
@@ -1496,8 +1527,8 @@
     <t>Indicates who should participate in performing the action described.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.participant` is mapped to FHIR R4 element `PlanDefinition.action.participant`.</t>
+    <t>Element `PlanDefinition.action.participant` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.participant` has is mapped to FHIR R4 element `PlanDefinition.action.participant`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:participant.id</t>
@@ -1518,7 +1549,8 @@
     <t>A reference to the id element of the actor who will participate in this action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.actorId` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.participant.actorId` is part of an existing definition because parent element `PlanDefinition.action.participant` requires a cross-version extension.
+Element `PlanDefinition.action.participant.actorId` has a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:actorId.id</t>
@@ -1548,7 +1580,8 @@
     <t>The type of participant in the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.type` is mapped to FHIR R4 element `PlanDefinition.action.participant.type`.</t>
+    <t>Element `PlanDefinition.action.participant.type` is part of an existing definition because parent element `PlanDefinition.action.participant` requires a cross-version extension.
+Element `PlanDefinition.action.participant.type` has is mapped to FHIR R4 element `PlanDefinition.action.participant.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:type.id</t>
@@ -1581,8 +1614,9 @@
     <t>Who or what can participate</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `PlanDefinition.action.participant.typeCanonical` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.participant.typeCanonical` is part of an existing definition because parent element `PlanDefinition.action.participant` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.action.participant.typeCanonical` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `PlanDefinition.action.participant.typeCanonical` has a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical.id</t>
@@ -1613,8 +1647,9 @@
     <t>When this element is a reference, it SHOULD be a reference to a definitional resource (for example, a location type, rather than a specific location).</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `PlanDefinition.action.participant.typeReference` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.participant.typeReference` is part of an existing definition because parent element `PlanDefinition.action.participant` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `PlanDefinition.action.participant.typeReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `PlanDefinition.action.participant.typeReference` has a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeReference.id</t>
@@ -1648,7 +1683,8 @@
     <t>The role the participant should play in performing the described action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.role` is mapped to FHIR R4 element `PlanDefinition.action.participant.role`.</t>
+    <t>Element `PlanDefinition.action.participant.role` is part of an existing definition because parent element `PlanDefinition.action.participant` requires a cross-version extension.
+Element `PlanDefinition.action.participant.role` has is mapped to FHIR R4 element `PlanDefinition.action.participant.role`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:role.id</t>
@@ -1684,7 +1720,8 @@
     <t>Indicates how the actor will be involved in the action - author, reviewer, witness, etc.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.participant.function` is will have a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
+    <t>Element `PlanDefinition.action.participant.function` is part of an existing definition because parent element `PlanDefinition.action.participant` requires a cross-version extension.
+Element `PlanDefinition.action.participant.function` has a context of PlanDefinition.action.participant based on following the parent source element upwards and mapping to `PlanDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:function.id</t>
@@ -1720,8 +1757,8 @@
     <t>The type of action to perform (create, update, remove).</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.type` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.type` is mapped to FHIR R4 element `PlanDefinition.action.type`.</t>
+    <t>Element `PlanDefinition.action.type` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.type` has is mapped to FHIR R4 element `PlanDefinition.action.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -1760,8 +1797,8 @@
     <t>Defines the grouping behavior for the action and its children.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.groupingBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.groupingBehavior` is mapped to FHIR R4 element `PlanDefinition.action.groupingBehavior`.</t>
+    <t>Element `PlanDefinition.action.groupingBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.groupingBehavior` has is mapped to FHIR R4 element `PlanDefinition.action.groupingBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:groupingBehavior.id</t>
@@ -1797,8 +1834,8 @@
     <t>Defines the selection behavior for the action and its children.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.selectionBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.selectionBehavior` is mapped to FHIR R4 element `PlanDefinition.action.selectionBehavior`.</t>
+    <t>Element `PlanDefinition.action.selectionBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.selectionBehavior` has is mapped to FHIR R4 element `PlanDefinition.action.selectionBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:selectionBehavior.id</t>
@@ -1834,8 +1871,8 @@
     <t>Defines the required behavior for the action.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.requiredBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.requiredBehavior` is mapped to FHIR R4 element `PlanDefinition.action.requiredBehavior`.</t>
+    <t>Element `PlanDefinition.action.requiredBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.requiredBehavior` has is mapped to FHIR R4 element `PlanDefinition.action.requiredBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:requiredBehavior.id</t>
@@ -1871,8 +1908,8 @@
     <t>Defines whether the action should usually be preselected.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.precheckBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.precheckBehavior` is mapped to FHIR R4 element `PlanDefinition.action.precheckBehavior`.</t>
+    <t>Element `PlanDefinition.action.precheckBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.precheckBehavior` has is mapped to FHIR R4 element `PlanDefinition.action.precheckBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:precheckBehavior.id</t>
@@ -1908,8 +1945,8 @@
     <t>Defines whether the action can be selected multiple times.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.cardinalityBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.cardinalityBehavior` is mapped to FHIR R4 element `PlanDefinition.action.cardinalityBehavior`.</t>
+    <t>Element `PlanDefinition.action.cardinalityBehavior` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.cardinalityBehavior` has is mapped to FHIR R4 element `PlanDefinition.action.cardinalityBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:cardinalityBehavior.id</t>
@@ -1948,9 +1985,9 @@
     <t>Note that the definition is optional, and if no definition is specified, a dynamicValue with a root ($this) path can be used to define the entire resource dynamically.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.definition[x]` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
+    <t>Element `PlanDefinition.action.definition[x]` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
 Note that the target element context `PlanDefinition.action.definition[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action`.
-Element `PlanDefinition.action.definition[x]` is mapped to FHIR R4 element `PlanDefinition.action.definition[x]`.
+Element `PlanDefinition.action.definition[x]` has is mapped to FHIR R4 element `PlanDefinition.action.definition[x]`, but has no comparisons.
 Note that the target element context `PlanDefinition.action.definition[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `PlanDefinition.action`.</t>
   </si>
   <si>
@@ -1988,8 +2025,8 @@
     <t>Note that when a referenced ActivityDefinition also defines a transform, the transform specified here generally takes precedence. In addition, if both a transform and dynamic values are specific, the dynamic values are applied to the result of the transform.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.transform` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.transform` is mapped to FHIR R4 element `PlanDefinition.action.transform`.</t>
+    <t>Element `PlanDefinition.action.transform` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.transform` has is mapped to FHIR R4 element `PlanDefinition.action.transform`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:transform.id</t>
@@ -2026,8 +2063,8 @@
     <t>Dynamic values are applied in the order in which they are defined in the PlanDefinition resource. Note that when dynamic values are also specified by a referenced ActivityDefinition, the dynamicValues from the ActivityDefinition are applied first, followed by the dynamicValues specified here. In addition, if both a transform and dynamic values are specific, the dynamic values are applied to the result of the transform.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.dynamicValue` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.dynamicValue` is mapped to FHIR R4 element `PlanDefinition.action.dynamicValue`.</t>
+    <t>Element `PlanDefinition.action.dynamicValue` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.dynamicValue` has is mapped to FHIR R4 element `PlanDefinition.action.dynamicValue`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.id</t>
@@ -2051,7 +2088,8 @@
     <t>To specify the path to the current action being realized, the %action environment variable is available in this path. For example, to specify the description element of the target action, the path would be %action.description. The path attribute contains a [Simple FHIRPath Subset](https://hl7.org/fhir/fhirpat.html#simple) that allows path traversal, but not calculation.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.dynamicValue.path` is mapped to FHIR R4 element `PlanDefinition.action.dynamicValue.path`.</t>
+    <t>Element `PlanDefinition.action.dynamicValue.path` is part of an existing definition because parent element `PlanDefinition.action.dynamicValue` requires a cross-version extension.
+Element `PlanDefinition.action.dynamicValue.path` has is mapped to FHIR R4 element `PlanDefinition.action.dynamicValue.path`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.extension:path.id</t>
@@ -2078,7 +2116,8 @@
     <t>An expression specifying the value of the customized element.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.dynamicValue.expression` is mapped to FHIR R4 element `PlanDefinition.action.dynamicValue.expression`.</t>
+    <t>Element `PlanDefinition.action.dynamicValue.expression` is part of an existing definition because parent element `PlanDefinition.action.dynamicValue` requires a cross-version extension.
+Element `PlanDefinition.action.dynamicValue.expression` has is mapped to FHIR R4 element `PlanDefinition.action.dynamicValue.expression`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:dynamicValue.extension:expression.id</t>
@@ -2117,8 +2156,8 @@
     <t>Sub actions that are contained within the action. The behavior of this action determines the functionality of the sub-actions. For example, a selection behavior of at-most-one indicates that of the sub-actions, at most one may be chosen as part of realizing the action definition.</t>
   </si>
   <si>
-    <t>Element `PlanDefinition.action.action` is part of an existing definition because parent element `PlanDefinition.action` requires a component extension (e.g., if this element is used as a content reference).
-Element `PlanDefinition.action.action` is mapped to FHIR R4 element `PlanDefinition.action.action`.</t>
+    <t>Element `PlanDefinition.action.action` is part of an existing definition because parent element `PlanDefinition.action` requires a cross-version extension.
+Element `PlanDefinition.action.action` has is mapped to FHIR R4 element `PlanDefinition.action.action`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:action.id</t>
@@ -11452,7 +11491,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>137</v>
+        <v>309</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11514,7 +11553,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>275</v>
@@ -11617,13 +11656,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11648,14 +11687,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11724,7 +11763,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>268</v>
@@ -11827,7 +11866,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>270</v>
@@ -11932,7 +11971,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>272</v>
@@ -11975,7 +12014,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -12037,7 +12076,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>275</v>
@@ -12063,13 +12102,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12140,13 +12179,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -12171,16 +12210,16 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12249,7 +12288,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>268</v>
@@ -12352,7 +12391,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>270</v>
@@ -12457,7 +12496,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>272</v>
@@ -12500,7 +12539,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12562,7 +12601,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>275</v>
@@ -12591,13 +12630,13 @@
         <v>229</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -12667,7 +12706,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12710,7 +12749,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12772,7 +12811,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12875,13 +12914,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12906,14 +12945,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12982,7 +13021,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -13085,7 +13124,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -13188,7 +13227,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
@@ -13226,7 +13265,7 @@
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13295,7 +13334,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>268</v>
@@ -13398,7 +13437,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>270</v>
@@ -13503,7 +13542,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>272</v>
@@ -13546,7 +13585,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>137</v>
+        <v>347</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13608,7 +13647,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>275</v>
@@ -13711,13 +13750,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13742,14 +13781,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13818,7 +13857,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>268</v>
@@ -13921,7 +13960,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>270</v>
@@ -14026,7 +14065,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>272</v>
@@ -14069,7 +14108,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -14131,7 +14170,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>275</v>
@@ -14157,13 +14196,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14234,13 +14273,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14265,16 +14304,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14343,7 +14382,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>268</v>
@@ -14446,7 +14485,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>270</v>
@@ -14551,7 +14590,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>272</v>
@@ -14594,7 +14633,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14656,7 +14695,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>275</v>
@@ -14685,13 +14724,13 @@
         <v>88</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14761,7 +14800,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -14804,7 +14843,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14866,7 +14905,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>123</v>
@@ -14969,13 +15008,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -15000,16 +15039,16 @@
         <v>94</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15078,7 +15117,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -15181,7 +15220,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -15192,7 +15231,7 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>79</v>
@@ -15284,13 +15323,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15315,14 +15354,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15391,7 +15430,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>268</v>
@@ -15494,7 +15533,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>270</v>
@@ -15599,7 +15638,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>272</v>
@@ -15642,7 +15681,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15704,7 +15743,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>275</v>
@@ -15733,10 +15772,10 @@
         <v>229</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15807,13 +15846,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15838,14 +15877,14 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15914,7 +15953,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>268</v>
@@ -16017,7 +16056,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>270</v>
@@ -16122,7 +16161,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>272</v>
@@ -16165,7 +16204,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -16227,7 +16266,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>275</v>
@@ -16256,10 +16295,10 @@
         <v>177</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16289,10 +16328,10 @@
         <v>178</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>77</v>
@@ -16330,13 +16369,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -16361,14 +16400,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16437,7 +16476,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>268</v>
@@ -16540,7 +16579,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>270</v>
@@ -16645,7 +16684,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>272</v>
@@ -16688,7 +16727,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16750,7 +16789,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>275</v>
@@ -16779,10 +16818,10 @@
         <v>177</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16812,10 +16851,10 @@
         <v>178</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16853,13 +16892,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16884,14 +16923,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16960,7 +16999,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>268</v>
@@ -17063,7 +17102,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>270</v>
@@ -17168,7 +17207,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>272</v>
@@ -17211,7 +17250,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -17273,7 +17312,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>275</v>
@@ -17299,13 +17338,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -17376,7 +17415,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>114</v>
@@ -17419,7 +17458,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17481,7 +17520,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -17584,13 +17623,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17615,16 +17654,16 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17693,7 +17732,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>106</v>
@@ -17796,7 +17835,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>108</v>
@@ -17901,7 +17940,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>114</v>
@@ -17944,7 +17983,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -18006,7 +18045,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>123</v>
@@ -18032,16 +18071,16 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -18111,13 +18150,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>77</v>
@@ -18142,16 +18181,16 @@
         <v>94</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -18220,7 +18259,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>106</v>
@@ -18323,7 +18362,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>108</v>
@@ -18426,13 +18465,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18457,10 +18496,10 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -18531,7 +18570,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>268</v>
@@ -18634,7 +18673,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>270</v>
@@ -18739,7 +18778,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>272</v>
@@ -18782,7 +18821,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18844,7 +18883,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>275</v>
@@ -18879,7 +18918,7 @@
         <v>295</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18887,7 +18926,7 @@
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>77</v>
@@ -18949,13 +18988,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -18980,14 +19019,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -19056,7 +19095,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>268</v>
@@ -19159,7 +19198,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>270</v>
@@ -19264,7 +19303,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>272</v>
@@ -19307,7 +19346,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19369,7 +19408,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>275</v>
@@ -19398,10 +19437,10 @@
         <v>191</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19472,13 +19511,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19503,14 +19542,14 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19579,7 +19618,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>268</v>
@@ -19682,7 +19721,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>270</v>
@@ -19787,7 +19826,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>272</v>
@@ -19830,7 +19869,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19892,7 +19931,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>275</v>
@@ -19918,13 +19957,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19995,7 +20034,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>114</v>
@@ -20038,7 +20077,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -20100,7 +20139,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>123</v>
@@ -20203,13 +20242,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -20234,14 +20273,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -20310,7 +20349,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>106</v>
@@ -20413,7 +20452,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>108</v>
@@ -20516,13 +20555,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20547,14 +20586,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20623,7 +20662,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>268</v>
@@ -20726,7 +20765,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>270</v>
@@ -20831,7 +20870,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>272</v>
@@ -20874,7 +20913,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20936,7 +20975,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>275</v>
@@ -20965,10 +21004,10 @@
         <v>88</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -21039,13 +21078,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -21070,14 +21109,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -21146,7 +21185,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>268</v>
@@ -21249,7 +21288,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>270</v>
@@ -21354,7 +21393,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>272</v>
@@ -21397,7 +21436,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21459,7 +21498,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>275</v>
@@ -21488,10 +21527,10 @@
         <v>177</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21521,10 +21560,10 @@
         <v>178</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>77</v>
@@ -21562,13 +21601,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21593,14 +21632,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21669,7 +21708,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>268</v>
@@ -21772,7 +21811,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>270</v>
@@ -21877,7 +21916,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>272</v>
@@ -21920,7 +21959,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21982,7 +22021,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>275</v>
@@ -22008,13 +22047,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22085,13 +22124,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -22116,16 +22155,16 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22194,7 +22233,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>268</v>
@@ -22297,7 +22336,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>270</v>
@@ -22402,7 +22441,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>272</v>
@@ -22445,7 +22484,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22507,7 +22546,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>275</v>
@@ -22533,16 +22572,16 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22612,13 +22651,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22643,14 +22682,14 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22719,7 +22758,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>268</v>
@@ -22822,7 +22861,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>270</v>
@@ -22927,7 +22966,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>272</v>
@@ -22970,7 +23009,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -23032,7 +23071,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>275</v>
@@ -23061,10 +23100,10 @@
         <v>191</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -23094,10 +23133,10 @@
         <v>192</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>77</v>
@@ -23135,13 +23174,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -23166,14 +23205,14 @@
         <v>94</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23242,7 +23281,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>268</v>
@@ -23345,7 +23384,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>270</v>
@@ -23450,7 +23489,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>272</v>
@@ -23493,7 +23532,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23555,7 +23594,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>275</v>
@@ -23584,10 +23623,10 @@
         <v>191</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23658,7 +23697,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>114</v>
@@ -23701,7 +23740,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>77</v>
@@ -23763,7 +23802,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>123</v>
@@ -23866,13 +23905,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>77</v>
@@ -23897,14 +23936,14 @@
         <v>94</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>77</v>
@@ -23973,7 +24012,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>106</v>
@@ -24076,7 +24115,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>108</v>
@@ -24181,7 +24220,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>114</v>
@@ -24224,7 +24263,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -24286,7 +24325,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>123</v>
@@ -24315,10 +24354,10 @@
         <v>191</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -24345,13 +24384,13 @@
         <v>77</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>77</v>
@@ -24389,13 +24428,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>77</v>
@@ -24420,14 +24459,14 @@
         <v>94</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>77</v>
@@ -24496,7 +24535,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>106</v>
@@ -24599,7 +24638,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>108</v>
@@ -24704,7 +24743,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>114</v>
@@ -24747,7 +24786,7 @@
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>77</v>
@@ -24809,7 +24848,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>123</v>
@@ -24838,10 +24877,10 @@
         <v>177</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -24871,10 +24910,10 @@
         <v>178</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>77</v>
@@ -24912,13 +24951,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -24943,14 +24982,14 @@
         <v>94</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -25019,7 +25058,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>106</v>
@@ -25122,7 +25161,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>108</v>
@@ -25227,7 +25266,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>114</v>
@@ -25270,7 +25309,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -25332,7 +25371,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>123</v>
@@ -25361,10 +25400,10 @@
         <v>177</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -25394,10 +25433,10 @@
         <v>178</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>77</v>
@@ -25435,13 +25474,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -25466,14 +25505,14 @@
         <v>94</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -25542,7 +25581,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>106</v>
@@ -25645,7 +25684,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>108</v>
@@ -25750,7 +25789,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>114</v>
@@ -25793,7 +25832,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25855,7 +25894,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>123</v>
@@ -25884,10 +25923,10 @@
         <v>177</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25917,10 +25956,10 @@
         <v>178</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>77</v>
@@ -25958,13 +25997,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>77</v>
@@ -25989,14 +26028,14 @@
         <v>94</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -26065,7 +26104,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>106</v>
@@ -26168,7 +26207,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>108</v>
@@ -26273,7 +26312,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>114</v>
@@ -26316,7 +26355,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26378,7 +26417,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>123</v>
@@ -26407,10 +26446,10 @@
         <v>177</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -26440,10 +26479,10 @@
         <v>178</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>77</v>
@@ -26481,13 +26520,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -26512,14 +26551,14 @@
         <v>94</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -26588,7 +26627,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>106</v>
@@ -26691,7 +26730,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>108</v>
@@ -26796,7 +26835,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>114</v>
@@ -26839,7 +26878,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -26901,7 +26940,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>123</v>
@@ -26930,10 +26969,10 @@
         <v>177</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -26963,10 +27002,10 @@
         <v>178</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="Z234" t="s" s="2">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>77</v>
@@ -27004,13 +27043,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D235" t="s" s="2">
         <v>77</v>
@@ -27035,16 +27074,16 @@
         <v>94</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>77</v>
@@ -27113,7 +27152,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>106</v>
@@ -27216,7 +27255,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>108</v>
@@ -27321,7 +27360,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>114</v>
@@ -27364,7 +27403,7 @@
       </c>
       <c r="Q238" s="2"/>
       <c r="R238" t="s" s="2">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="S238" t="s" s="2">
         <v>77</v>
@@ -27426,7 +27465,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>123</v>
@@ -27452,16 +27491,16 @@
         <v>77</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -27531,13 +27570,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>77</v>
@@ -27562,16 +27601,16 @@
         <v>94</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
@@ -27640,7 +27679,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>106</v>
@@ -27743,7 +27782,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>108</v>
@@ -27848,7 +27887,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>114</v>
@@ -27891,7 +27930,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -27953,7 +27992,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>123</v>
@@ -27979,16 +28018,16 @@
         <v>77</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
@@ -28058,13 +28097,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>77</v>
@@ -28089,16 +28128,16 @@
         <v>94</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="P245" t="s" s="2">
         <v>77</v>
@@ -28167,7 +28206,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>106</v>
@@ -28270,7 +28309,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>108</v>
@@ -28373,13 +28412,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>77</v>
@@ -28404,16 +28443,16 @@
         <v>94</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>77</v>
@@ -28482,7 +28521,7 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>268</v>
@@ -28585,7 +28624,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>270</v>
@@ -28690,7 +28729,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>272</v>
@@ -28733,7 +28772,7 @@
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>77</v>
@@ -28795,7 +28834,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>275</v>
@@ -28824,13 +28863,13 @@
         <v>88</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
@@ -28900,7 +28939,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>108</v>
@@ -28931,16 +28970,16 @@
         <v>94</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="N253" t="s" s="2">
         <v>282</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P253" t="s" s="2">
         <v>77</v>
@@ -29009,7 +29048,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>268</v>
@@ -29112,7 +29151,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>270</v>
@@ -29217,7 +29256,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>272</v>
@@ -29260,7 +29299,7 @@
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" t="s" s="2">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="S256" t="s" s="2">
         <v>77</v>
@@ -29322,7 +29361,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>275</v>
@@ -29351,10 +29390,10 @@
         <v>289</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="N257" t="s" s="2">
         <v>282</v>
@@ -29427,7 +29466,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>114</v>
@@ -29470,7 +29509,7 @@
       </c>
       <c r="Q258" s="2"/>
       <c r="R258" t="s" s="2">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="S258" t="s" s="2">
         <v>77</v>
@@ -29532,7 +29571,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>123</v>
@@ -29635,13 +29674,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>77</v>
@@ -29666,14 +29705,14 @@
         <v>94</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="P260" t="s" s="2">
         <v>77</v>
@@ -29742,7 +29781,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>106</v>
@@ -29845,7 +29884,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>108</v>
@@ -29950,7 +29989,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>114</v>
@@ -30055,7 +30094,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-PlanDefinition.action.xlsx
+++ b/StructureDefinition-ext-R5-PlanDefinition.action.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8789" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8789" uniqueCount="665">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -577,15 +577,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-request-priority-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -627,7 +618,7 @@
     <t>Provides examples of actions to be performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:reason</t>
@@ -667,7 +658,7 @@
     <t>Provides examples of reasons for actions to be performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-reason-code-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-reason-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:documentation</t>
@@ -887,12 +878,6 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t>Defines the kinds of conditions that can appear on actions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-condition-kind-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:condition.extension:expression</t>
   </si>
   <si>
@@ -1266,12 +1251,6 @@
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:relationship.value[x]</t>
-  </si>
-  <si>
-    <t>Defines the types of relationships between actions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-relationship-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:relatedAction.extension:endRelationship</t>
@@ -1458,8 +1437,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:concept.id</t>
@@ -1486,8 +1464,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:location.extension:reference.id</t>
@@ -1502,7 +1479,7 @@
     <t>Extension.extension:location.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -1599,10 +1576,13 @@
     <t>Extension.extension:participant.extension:type.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-participant-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:participant.extension:typeCanonical</t>
@@ -1634,7 +1614,7 @@
     <t>Extension.extension:participant.extension:typeCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
 </t>
   </si>
   <si>
@@ -1667,7 +1647,7 @@
     <t>Extension.extension:participant.extension:typeReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1702,12 +1682,6 @@
     <t>Extension.extension:participant.extension:role.value[x]</t>
   </si>
   <si>
-    <t>Defines roles played by participants for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-role-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:participant.extension:function</t>
   </si>
   <si>
@@ -1776,15 +1750,6 @@
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>The type of action to be performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:groupingBehavior</t>
   </si>
   <si>
@@ -1816,12 +1781,6 @@
     <t>Extension.extension:groupingBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines organization behavior of a group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-grouping-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:selectionBehavior</t>
   </si>
   <si>
@@ -1853,12 +1812,6 @@
     <t>Extension.extension:selectionBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines selection behavior of a group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-selection-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:requiredBehavior</t>
   </si>
   <si>
@@ -1890,12 +1843,6 @@
     <t>Extension.extension:requiredBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines expectations around whether an action or action group is required.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-required-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:precheckBehavior</t>
   </si>
   <si>
@@ -1927,12 +1874,6 @@
     <t>Extension.extension:precheckBehavior.value[x]</t>
   </si>
   <si>
-    <t>Defines selection frequency behavior for an action or group.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-precheck-behavior-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:cardinalityBehavior</t>
   </si>
   <si>
@@ -1962,12 +1903,6 @@
   </si>
   <si>
     <t>Extension.extension:cardinalityBehavior.value[x]</t>
-  </si>
-  <si>
-    <t>Defines behavior for an action or a group for how many times that item may be repeated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-cardinality-behavior-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:definition</t>
@@ -2006,7 +1941,7 @@
     <t>Extension.extension:definition.value[x]</t>
   </si>
   <si>
-    <t>canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|0.0.1-snapshot-3|MessageDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|0.0.1-snapshot-3|PlanDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|0.0.1-snapshot-3|Questionnaire|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SpecimenDefinition|0.0.1-snapshot-3|SpecimenDefinition|4.0.1)
+    <t>canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-MessageDefinition|MessageDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-PlanDefinition|PlanDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Questionnaire|Questionnaire|http://hl7.org/fhir/5.0/StructureDefinition/profile-SpecimenDefinition|SpecimenDefinition)
 uri</t>
   </si>
   <si>
@@ -2044,7 +1979,7 @@
     <t>Extension.extension:transform.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureMap|0.0.1-snapshot-3|StructureMap|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureMap|StructureMap)
 </t>
   </si>
   <si>
@@ -2519,8 +2454,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6053,13 +5988,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -6097,13 +6032,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -6128,14 +6063,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -6204,7 +6139,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -6307,7 +6242,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -6412,7 +6347,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -6455,7 +6390,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6517,7 +6452,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -6543,13 +6478,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6576,13 +6511,13 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
@@ -6620,13 +6555,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6651,16 +6586,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6729,7 +6664,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6832,7 +6767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6937,7 +6872,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6980,7 +6915,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -7042,7 +6977,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -7068,16 +7003,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7103,13 +7038,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -7147,13 +7082,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -7178,14 +7113,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7254,7 +7189,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -7357,7 +7292,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -7462,7 +7397,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -7505,7 +7440,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7567,7 +7502,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7593,13 +7528,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7670,13 +7605,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7701,14 +7636,14 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7777,7 +7712,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7880,7 +7815,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7985,7 +7920,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -8028,7 +7963,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -8090,7 +8025,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -8116,13 +8051,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8193,13 +8128,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -8224,16 +8159,16 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8302,7 +8237,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -8405,7 +8340,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -8510,7 +8445,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -8553,7 +8488,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8615,7 +8550,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8641,16 +8576,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8720,13 +8655,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8751,14 +8686,14 @@
         <v>94</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8827,7 +8762,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8930,7 +8865,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -9035,7 +8970,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -9078,7 +9013,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -9140,7 +9075,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -9166,13 +9101,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9243,13 +9178,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9274,16 +9209,16 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9352,7 +9287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -9455,7 +9390,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -9558,13 +9493,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -9589,16 +9524,16 @@
         <v>94</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9667,10 +9602,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9770,10 +9705,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9875,10 +9810,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9918,7 +9853,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -9980,10 +9915,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10009,13 +9944,13 @@
         <v>177</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10041,13 +9976,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -10085,13 +10020,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -10116,16 +10051,16 @@
         <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -10194,10 +10129,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10297,10 +10232,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10402,10 +10337,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10445,7 +10380,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -10507,10 +10442,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10533,16 +10468,16 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10612,7 +10547,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -10655,7 +10590,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10717,7 +10652,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10743,13 +10678,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10820,13 +10755,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10851,14 +10786,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10927,7 +10862,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -11030,7 +10965,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -11133,7 +11068,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
@@ -11167,11 +11102,11 @@
         <v>138</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11240,10 +11175,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11343,10 +11278,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11448,10 +11383,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11491,7 +11426,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11553,10 +11488,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11585,7 +11520,7 @@
         <v>138</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11656,13 +11591,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11687,14 +11622,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11763,10 +11698,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11866,10 +11801,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11971,10 +11906,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12014,7 +11949,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -12076,10 +12011,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12102,13 +12037,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12179,13 +12114,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -12210,16 +12145,16 @@
         <v>94</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12288,10 +12223,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12391,10 +12326,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12496,10 +12431,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12539,7 +12474,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -12601,10 +12536,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12627,16 +12562,16 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -12706,7 +12641,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12749,7 +12684,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12811,7 +12746,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12837,13 +12772,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12914,13 +12849,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12945,14 +12880,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13021,7 +12956,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -13124,7 +13059,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -13227,7 +13162,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
@@ -13261,11 +13196,11 @@
         <v>138</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13334,10 +13269,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13437,10 +13372,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13542,10 +13477,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13585,7 +13520,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13647,10 +13582,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13679,7 +13614,7 @@
         <v>138</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13750,13 +13685,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13781,14 +13716,14 @@
         <v>94</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13857,10 +13792,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13960,10 +13895,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14065,10 +14000,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14108,7 +14043,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -14170,10 +14105,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14196,13 +14131,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14273,13 +14208,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14304,16 +14239,16 @@
         <v>94</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -14382,10 +14317,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14485,10 +14420,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14590,10 +14525,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14633,7 +14568,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -14695,10 +14630,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14724,13 +14659,13 @@
         <v>88</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -14800,7 +14735,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -14843,7 +14778,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14905,7 +14840,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>123</v>
@@ -14931,13 +14866,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15008,13 +14943,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -15039,16 +14974,16 @@
         <v>94</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -15117,7 +15052,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -15220,7 +15155,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -15231,7 +15166,7 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>79</v>
@@ -15323,13 +15258,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15354,14 +15289,14 @@
         <v>94</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15430,10 +15365,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15533,10 +15468,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15638,10 +15573,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15681,7 +15616,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15743,10 +15678,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15769,13 +15704,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15846,13 +15781,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15877,14 +15812,14 @@
         <v>94</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15953,10 +15888,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -16056,10 +15991,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16161,10 +16096,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -16204,7 +16139,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -16266,10 +16201,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16295,10 +16230,10 @@
         <v>177</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16325,13 +16260,13 @@
         <v>77</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>77</v>
@@ -16369,13 +16304,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -16400,14 +16335,14 @@
         <v>94</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16476,10 +16411,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16579,10 +16514,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16684,10 +16619,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -16727,7 +16662,7 @@
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="S136" t="s" s="2">
         <v>77</v>
@@ -16789,10 +16724,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16818,10 +16753,10 @@
         <v>177</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -16848,13 +16783,13 @@
         <v>77</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>399</v>
+        <v>77</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>77</v>
@@ -16892,13 +16827,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>77</v>
@@ -16923,14 +16858,14 @@
         <v>94</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>77</v>
@@ -16999,10 +16934,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -17102,10 +17037,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -17207,10 +17142,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -17250,7 +17185,7 @@
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="S141" t="s" s="2">
         <v>77</v>
@@ -17312,10 +17247,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17338,13 +17273,13 @@
         <v>77</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -17415,7 +17350,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>114</v>
@@ -17458,7 +17393,7 @@
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="S143" t="s" s="2">
         <v>77</v>
@@ -17520,7 +17455,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>123</v>
@@ -17546,13 +17481,13 @@
         <v>77</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -17623,13 +17558,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -17654,16 +17589,16 @@
         <v>94</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>77</v>
@@ -17732,7 +17667,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>106</v>
@@ -17835,7 +17770,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>108</v>
@@ -17940,7 +17875,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>114</v>
@@ -17983,7 +17918,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>77</v>
@@ -18045,7 +17980,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>123</v>
@@ -18071,16 +18006,16 @@
         <v>77</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -18150,13 +18085,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D150" t="s" s="2">
         <v>77</v>
@@ -18181,16 +18116,16 @@
         <v>94</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>77</v>
@@ -18259,7 +18194,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>106</v>
@@ -18362,7 +18297,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>108</v>
@@ -18465,13 +18400,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>77</v>
@@ -18496,10 +18431,10 @@
         <v>94</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -18570,10 +18505,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18673,10 +18608,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18778,10 +18713,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -18821,7 +18756,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>77</v>
@@ -18883,10 +18818,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18912,13 +18847,13 @@
         <v>88</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
@@ -18926,7 +18861,7 @@
       </c>
       <c r="Q157" s="2"/>
       <c r="R157" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>77</v>
@@ -18988,13 +18923,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>77</v>
@@ -19019,14 +18954,14 @@
         <v>94</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>77</v>
@@ -19095,10 +19030,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19198,10 +19133,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19303,10 +19238,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19346,7 +19281,7 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="S161" t="s" s="2">
         <v>77</v>
@@ -19408,10 +19343,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19434,13 +19369,13 @@
         <v>77</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -19511,13 +19446,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D163" t="s" s="2">
         <v>77</v>
@@ -19542,14 +19477,14 @@
         <v>94</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>77</v>
@@ -19618,10 +19553,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19721,10 +19656,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19826,10 +19761,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19869,7 +19804,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19931,10 +19866,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19957,13 +19892,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -20034,7 +19969,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>114</v>
@@ -20077,7 +20012,7 @@
       </c>
       <c r="Q168" s="2"/>
       <c r="R168" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="S168" t="s" s="2">
         <v>77</v>
@@ -20139,7 +20074,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>123</v>
@@ -20165,13 +20100,13 @@
         <v>77</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
@@ -20242,13 +20177,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>77</v>
@@ -20273,14 +20208,14 @@
         <v>94</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>77</v>
@@ -20349,7 +20284,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>106</v>
@@ -20452,7 +20387,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>108</v>
@@ -20555,13 +20490,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20586,14 +20521,14 @@
         <v>94</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20662,10 +20597,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20765,10 +20700,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20870,10 +20805,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -20913,7 +20848,7 @@
       </c>
       <c r="Q176" s="2"/>
       <c r="R176" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="S176" t="s" s="2">
         <v>77</v>
@@ -20975,10 +20910,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21004,10 +20939,10 @@
         <v>88</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -21078,13 +21013,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D178" t="s" s="2">
         <v>77</v>
@@ -21109,14 +21044,14 @@
         <v>94</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>77</v>
@@ -21185,10 +21120,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21288,10 +21223,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21393,10 +21328,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21436,7 +21371,7 @@
       </c>
       <c r="Q181" s="2"/>
       <c r="R181" t="s" s="2">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="S181" t="s" s="2">
         <v>77</v>
@@ -21498,10 +21433,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21527,10 +21462,10 @@
         <v>177</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -21557,13 +21492,13 @@
         <v>77</v>
       </c>
       <c r="X182" t="s" s="2">
-        <v>178</v>
+        <v>496</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>77</v>
@@ -21601,13 +21536,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>77</v>
@@ -21632,14 +21567,14 @@
         <v>94</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>77</v>
@@ -21708,10 +21643,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21811,10 +21746,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21916,10 +21851,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21959,7 +21894,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -22021,10 +21956,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -22047,13 +21982,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22124,13 +22059,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -22155,16 +22090,16 @@
         <v>94</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22233,10 +22168,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22336,10 +22271,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22441,10 +22376,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22484,7 +22419,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22546,10 +22481,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22572,16 +22507,16 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -22651,13 +22586,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22682,14 +22617,14 @@
         <v>94</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22758,10 +22693,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22861,10 +22796,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22966,10 +22901,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -23009,7 +22944,7 @@
       </c>
       <c r="Q196" s="2"/>
       <c r="R196" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="S196" t="s" s="2">
         <v>77</v>
@@ -23071,10 +23006,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23097,13 +23032,13 @@
         <v>77</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
@@ -23130,13 +23065,13 @@
         <v>77</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>535</v>
+        <v>77</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>536</v>
+        <v>77</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>77</v>
@@ -23174,13 +23109,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>77</v>
@@ -23205,14 +23140,14 @@
         <v>94</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>77</v>
@@ -23281,10 +23216,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23384,10 +23319,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23489,10 +23424,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -23532,7 +23467,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>77</v>
@@ -23594,10 +23529,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23620,13 +23555,13 @@
         <v>77</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
@@ -23697,7 +23632,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>114</v>
@@ -23740,7 +23675,7 @@
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>77</v>
@@ -23802,7 +23737,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>123</v>
@@ -23828,13 +23763,13 @@
         <v>77</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23905,13 +23840,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D205" t="s" s="2">
         <v>77</v>
@@ -23936,14 +23871,14 @@
         <v>94</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="P205" t="s" s="2">
         <v>77</v>
@@ -24012,7 +23947,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>106</v>
@@ -24115,7 +24050,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>108</v>
@@ -24220,7 +24155,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>114</v>
@@ -24263,7 +24198,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -24325,7 +24260,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>123</v>
@@ -24351,13 +24286,13 @@
         <v>77</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -24384,13 +24319,13 @@
         <v>77</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>559</v>
+        <v>77</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>560</v>
+        <v>77</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>561</v>
+        <v>77</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>77</v>
@@ -24428,13 +24363,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>77</v>
@@ -24459,14 +24394,14 @@
         <v>94</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>77</v>
@@ -24535,7 +24470,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>106</v>
@@ -24638,7 +24573,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>108</v>
@@ -24743,7 +24678,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>114</v>
@@ -24786,7 +24721,7 @@
       </c>
       <c r="Q213" s="2"/>
       <c r="R213" t="s" s="2">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="S213" t="s" s="2">
         <v>77</v>
@@ -24848,7 +24783,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>123</v>
@@ -24877,10 +24812,10 @@
         <v>177</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -24907,13 +24842,13 @@
         <v>77</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>572</v>
+        <v>77</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>573</v>
+        <v>77</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>77</v>
@@ -24951,13 +24886,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>77</v>
@@ -24982,14 +24917,14 @@
         <v>94</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>77</v>
@@ -25058,7 +24993,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>106</v>
@@ -25161,7 +25096,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>108</v>
@@ -25266,7 +25201,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>114</v>
@@ -25309,7 +25244,7 @@
       </c>
       <c r="Q218" s="2"/>
       <c r="R218" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="S218" t="s" s="2">
         <v>77</v>
@@ -25371,7 +25306,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>123</v>
@@ -25400,10 +25335,10 @@
         <v>177</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -25430,13 +25365,13 @@
         <v>77</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>584</v>
+        <v>77</v>
       </c>
       <c r="Z219" t="s" s="2">
-        <v>585</v>
+        <v>77</v>
       </c>
       <c r="AA219" t="s" s="2">
         <v>77</v>
@@ -25474,13 +25409,13 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D220" t="s" s="2">
         <v>77</v>
@@ -25505,14 +25440,14 @@
         <v>94</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>77</v>
@@ -25581,7 +25516,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>106</v>
@@ -25684,7 +25619,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>108</v>
@@ -25789,7 +25724,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>114</v>
@@ -25832,7 +25767,7 @@
       </c>
       <c r="Q223" s="2"/>
       <c r="R223" t="s" s="2">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="S223" t="s" s="2">
         <v>77</v>
@@ -25894,7 +25829,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>123</v>
@@ -25923,10 +25858,10 @@
         <v>177</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25953,13 +25888,13 @@
         <v>77</v>
       </c>
       <c r="X224" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>596</v>
+        <v>77</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>597</v>
+        <v>77</v>
       </c>
       <c r="AA224" t="s" s="2">
         <v>77</v>
@@ -25997,13 +25932,13 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="D225" t="s" s="2">
         <v>77</v>
@@ -26028,14 +25963,14 @@
         <v>94</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>77</v>
@@ -26104,7 +26039,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>106</v>
@@ -26207,7 +26142,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>108</v>
@@ -26312,7 +26247,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>114</v>
@@ -26355,7 +26290,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26417,7 +26352,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>123</v>
@@ -26446,10 +26381,10 @@
         <v>177</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -26476,13 +26411,13 @@
         <v>77</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>608</v>
+        <v>77</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>609</v>
+        <v>77</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>77</v>
@@ -26520,13 +26455,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -26551,14 +26486,14 @@
         <v>94</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -26627,7 +26562,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>106</v>
@@ -26730,7 +26665,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>108</v>
@@ -26835,7 +26770,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>617</v>
+        <v>598</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>114</v>
@@ -26878,7 +26813,7 @@
       </c>
       <c r="Q233" s="2"/>
       <c r="R233" t="s" s="2">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="S233" t="s" s="2">
         <v>77</v>
@@ -26940,7 +26875,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>619</v>
+        <v>600</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>123</v>
@@ -26969,10 +26904,10 @@
         <v>177</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -26999,13 +26934,13 @@
         <v>77</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>620</v>
+        <v>77</v>
       </c>
       <c r="Z234" t="s" s="2">
-        <v>621</v>
+        <v>77</v>
       </c>
       <c r="AA234" t="s" s="2">
         <v>77</v>
@@ -27043,13 +26978,13 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>622</v>
+        <v>601</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="D235" t="s" s="2">
         <v>77</v>
@@ -27074,16 +27009,16 @@
         <v>94</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>77</v>
@@ -27152,7 +27087,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>106</v>
@@ -27255,7 +27190,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>108</v>
@@ -27360,7 +27295,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>630</v>
+        <v>609</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>114</v>
@@ -27403,7 +27338,7 @@
       </c>
       <c r="Q238" s="2"/>
       <c r="R238" t="s" s="2">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="S238" t="s" s="2">
         <v>77</v>
@@ -27465,7 +27400,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>123</v>
@@ -27491,16 +27426,16 @@
         <v>77</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>626</v>
+        <v>605</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -27570,13 +27505,13 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>77</v>
@@ -27601,16 +27536,16 @@
         <v>94</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>77</v>
@@ -27679,7 +27614,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>640</v>
+        <v>619</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>106</v>
@@ -27782,7 +27717,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>108</v>
@@ -27887,7 +27822,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>114</v>
@@ -27930,7 +27865,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -27992,7 +27927,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>123</v>
@@ -28018,16 +27953,16 @@
         <v>77</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="O244" s="2"/>
       <c r="P244" t="s" s="2">
@@ -28097,13 +28032,13 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="D245" t="s" s="2">
         <v>77</v>
@@ -28128,16 +28063,16 @@
         <v>94</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="P245" t="s" s="2">
         <v>77</v>
@@ -28206,7 +28141,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>106</v>
@@ -28309,7 +28244,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>108</v>
@@ -28412,13 +28347,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>77</v>
@@ -28443,16 +28378,16 @@
         <v>94</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>77</v>
@@ -28521,10 +28456,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28624,10 +28559,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28729,10 +28664,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -28772,7 +28707,7 @@
       </c>
       <c r="Q251" s="2"/>
       <c r="R251" t="s" s="2">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>77</v>
@@ -28834,10 +28769,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -28863,13 +28798,13 @@
         <v>88</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
@@ -28939,13 +28874,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>77</v>
@@ -28970,16 +28905,16 @@
         <v>94</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O253" t="s" s="2">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="P253" t="s" s="2">
         <v>77</v>
@@ -29048,10 +28983,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -29151,10 +29086,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -29256,10 +29191,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -29299,7 +29234,7 @@
       </c>
       <c r="Q256" s="2"/>
       <c r="R256" t="s" s="2">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="S256" t="s" s="2">
         <v>77</v>
@@ -29361,10 +29296,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29387,16 +29322,16 @@
         <v>77</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="O257" s="2"/>
       <c r="P257" t="s" s="2">
@@ -29466,7 +29401,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>114</v>
@@ -29509,7 +29444,7 @@
       </c>
       <c r="Q258" s="2"/>
       <c r="R258" t="s" s="2">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="S258" t="s" s="2">
         <v>77</v>
@@ -29571,7 +29506,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>123</v>
@@ -29597,13 +29532,13 @@
         <v>77</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -29674,13 +29609,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>77</v>
@@ -29705,14 +29640,14 @@
         <v>94</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" t="s" s="2">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="P260" t="s" s="2">
         <v>77</v>
@@ -29781,7 +29716,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>106</v>
@@ -29884,7 +29819,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>108</v>
@@ -29989,7 +29924,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>114</v>
@@ -30094,7 +30029,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>123</v>
@@ -30120,13 +30055,13 @@
         <v>77</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
@@ -30328,13 +30263,13 @@
         <v>77</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
